--- a/1_Schematic/Build V2.0/RF-GEN_Test Data_20200314.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN_Test Data_20200314.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\Plasma_RF_Generator\1_Schematic\Build V2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BFAEFF-2BBD-4FE6-95F9-C82A66D69477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0314_회사" sheetId="1" r:id="rId1"/>
+    <sheet name="0326" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>RF Pout</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,14 +141,42 @@
   </si>
   <si>
     <t>RF On후 220msec 후 Buck ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.5KW 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Load</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,11 +264,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -253,9 +283,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -516,272 +543,274 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.296875" customWidth="1"/>
-    <col min="2" max="22" width="6.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4" t="s">
+      <c r="U5" s="7"/>
+      <c r="V5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>50</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>I7*48/100</f>
         <v>24</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>22.3</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>5.41</v>
       </c>
-      <c r="N7" s="6">
-        <f>K7*L7</f>
+      <c r="N7" s="5">
+        <f t="shared" ref="N7:N15" si="0">K7*L7</f>
         <v>196.24</v>
       </c>
-      <c r="O7" s="6">
-        <f>K7*M7</f>
+      <c r="O7" s="5">
+        <f t="shared" ref="O7:O15" si="1">K7*M7</f>
         <v>120.643</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>23.4</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>7.55</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
         <v>224</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>74.900000000000006</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <f>U7*U7/50</f>
         <v>112.20020000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>60</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>I8*48/100</f>
         <v>28.8</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>26.7</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6">
-        <f>K8*L8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <f>K8*M8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <v>23.6</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>7.6</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
         <v>256</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>86.5</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <f>U8*U8/50</f>
         <v>149.64500000000001</v>
       </c>
@@ -790,52 +819,52 @@
         <v>37.444799999999987</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>70</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" ref="J8:J15" si="0">I9*48/100</f>
+      <c r="J9" s="5">
+        <f t="shared" ref="J9:J15" si="2">I9*48/100</f>
         <v>33.6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>32</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6">
-        <f t="shared" ref="N9:N12" si="1">K9*L9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" ref="O9:O12" si="2">K9*M9</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
         <v>23.2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>7.56</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
         <v>292</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <v>97.8</v>
       </c>
-      <c r="V9" s="6">
-        <f t="shared" ref="V8:V15" si="3">U9*U9/50</f>
+      <c r="V9" s="5">
+        <f t="shared" ref="V9:V15" si="3">U9*U9/50</f>
         <v>191.29679999999999</v>
       </c>
       <c r="W9">
@@ -843,51 +872,51 @@
         <v>41.65179999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>80</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>35.49</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
-        <v>38.4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>35.49</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>23.4</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>7.51</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
         <v>304</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <v>103</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f t="shared" si="3"/>
         <v>212.18</v>
       </c>
@@ -896,55 +925,55 @@
         <v>20.883200000000016</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>90</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>43.2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>40</v>
+      </c>
+      <c r="L11" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="N11" s="5">
         <f t="shared" si="0"/>
-        <v>43.2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>40</v>
-      </c>
-      <c r="L11" s="5">
-        <v>15.2</v>
-      </c>
-      <c r="M11" s="5">
-        <v>12.9</v>
-      </c>
-      <c r="N11" s="6">
+        <v>608</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>608</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="2"/>
         <v>516</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>23.4</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>7.51</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
         <v>320</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>108</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <f t="shared" si="3"/>
         <v>233.28</v>
       </c>
@@ -953,168 +982,168 @@
         <v>21.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>99.9</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>47.952000000000005</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="N12" s="5">
         <f t="shared" si="0"/>
-        <v>47.952000000000005</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
-        <v>15.2</v>
-      </c>
-      <c r="M12" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>23.2</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>7.51</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4">
         <v>328</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>110</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6">
-        <f t="shared" ref="N8:N15" si="4">K13*L13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" ref="O8:O15" si="5">K13*M13</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="6">
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6">
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6">
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>50</v>
       </c>
@@ -1136,13 +1165,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="I5:J5"/>
@@ -1150,14 +1184,761 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:G4"/>
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5">
+        <f>I7*48/100</f>
+        <v>24</v>
+      </c>
+      <c r="K7" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5">
+        <f t="shared" ref="N7:N15" si="0">K7*L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" ref="O7:O15" si="1">K7*M7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>163</v>
+      </c>
+      <c r="U7" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="V7" s="8">
+        <f>U7*U7/50</f>
+        <v>59.405000000000001</v>
+      </c>
+      <c r="X7" s="4">
+        <v>221</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>210</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AB7" s="8">
+        <f>AA7*AA7/50</f>
+        <v>101.95920000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>60</v>
+      </c>
+      <c r="J8" s="5">
+        <f>I8*48/100</f>
+        <v>28.8</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>177</v>
+      </c>
+      <c r="S8" s="4">
+        <v>59.9</v>
+      </c>
+      <c r="T8" s="4">
+        <v>179</v>
+      </c>
+      <c r="U8" s="9">
+        <v>60</v>
+      </c>
+      <c r="V8" s="8">
+        <f>U8*U8/50</f>
+        <v>72</v>
+      </c>
+      <c r="W8">
+        <f>V8-V7</f>
+        <v>12.594999999999999</v>
+      </c>
+      <c r="X8" s="4">
+        <v>219</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>210</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>70.3</v>
+      </c>
+      <c r="AB8" s="8">
+        <f>AA8*AA8/50</f>
+        <v>98.841799999999978</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>70</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ref="J9:J15" si="2">I9*48/100</f>
+        <v>33.6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>195</v>
+      </c>
+      <c r="S9" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="T9" s="4">
+        <v>198</v>
+      </c>
+      <c r="U9" s="9">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" ref="V9:V15" si="3">U9*U9/50</f>
+        <v>87.384199999999979</v>
+      </c>
+      <c r="W9">
+        <f>V9-V8</f>
+        <v>15.384199999999979</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="8">
+        <f t="shared" ref="AB9:AB15" si="4">AA9*AA9/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>80</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>200</v>
+      </c>
+      <c r="S10" s="4">
+        <v>67.7</v>
+      </c>
+      <c r="T10" s="4">
+        <v>203</v>
+      </c>
+      <c r="U10" s="9">
+        <v>67.8</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="3"/>
+        <v>91.936799999999991</v>
+      </c>
+      <c r="W10">
+        <f>V10-V9</f>
+        <v>4.5526000000000124</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>90</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>43.2</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <v>206</v>
+      </c>
+      <c r="S11" s="4">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="T11" s="4">
+        <v>207</v>
+      </c>
+      <c r="U11" s="9">
+        <v>69.5</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="3"/>
+        <v>96.605000000000004</v>
+      </c>
+      <c r="W11">
+        <f>V11-V10</f>
+        <v>4.668200000000013</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>47.76</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <v>203</v>
+      </c>
+      <c r="S12" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="T12" s="4">
+        <v>203</v>
+      </c>
+      <c r="U12" s="9">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="3"/>
+        <v>92.752199999999988</v>
+      </c>
+      <c r="W12">
+        <f>V12-V11</f>
+        <v>-3.8528000000000162</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>